--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1307159.749819144</v>
+        <v>1332494.173824346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.95395642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>113.8272633241252</v>
       </c>
       <c r="X2" t="n">
-        <v>145.2578297840787</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>199.0178122286242</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7761742049799</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609376</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>197.4083929851567</v>
+        <v>213.9152309627403</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.13267830033029</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>210.7317760590121</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.5808806410322</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1549,7 +1549,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>145.1505371240065</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>118.9621335895202</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>278.9270494795699</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.79552504697167</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>296.3879993720424</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>182.3603339273699</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>102.638629916822</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2555,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>222.697201871573</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>119.5593957283845</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2612,13 +2612,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>43.31785343914003</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>181.5363795924529</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>169.6269039556352</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>398.834851475613</v>
+        <v>302.2028583029323</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>155.4526127311939</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>72.75222284062262</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,22 +3430,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>184.5808806410311</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>355.546756558266</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>213.9154470216037</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.11685673997614</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8092116959087</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>274.9468465755252</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>295.9707132341636</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.47555601903409</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.5674858910851</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C2" t="n">
-        <v>952.5674858910851</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1547.506540468737</v>
       </c>
       <c r="X2" t="n">
-        <v>1339.167325955207</v>
+        <v>1547.506540468737</v>
       </c>
       <c r="Y2" t="n">
-        <v>1339.167325955207</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.1015098861748</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C5" t="n">
-        <v>799.1015098861748</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D5" t="n">
-        <v>799.1015098861748</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="E5" t="n">
-        <v>799.1015098861748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.1015098861748</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4708,19 +4708,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4799,52 +4799,52 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2497.746673861499</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="U8" t="n">
-        <v>2497.746673861499</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="V8" t="n">
-        <v>2497.746673861499</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W8" t="n">
-        <v>2497.746673861499</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X8" t="n">
-        <v>2497.746673861499</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
         <v>2107.607341885688</v>
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837193</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
         <v>562.6765899837193</v>
@@ -4954,58 +4954,58 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.8232485495353</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607762</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036447</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036447</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036447</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036447</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5054,37 +5054,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.703757037383</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E13" t="n">
         <v>709.5665374816297</v>
@@ -5197,7 +5197,7 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,7 +5206,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
         <v>529.6040388502502</v>
@@ -5215,34 +5215,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064346</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C14" t="n">
-        <v>412.208680427115</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036447</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036447</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036447</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036447</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036447</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224079</v>
@@ -5291,37 +5291,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2495.503697383053</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2241.741912021145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1910.679024677574</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1557.91036940746</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
@@ -5370,10 +5370,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>393.6767897220517</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>393.6767897220517</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.6874762441725</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036447</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036447</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036447</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036447</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.723949158871</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.6610618153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545186</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1112.426648284106</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>722.2873163082943</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.6464301928562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>227.6464301928562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>227.6464301928562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>227.6464301928562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>227.6464301928562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600565</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>698.7120650600565</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V19" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>409.2948950230959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>409.2948950230959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>409.2948950230959</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.9054987607762</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C20" t="n">
-        <v>53.94298182036446</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036446</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1112.426648284106</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>722.2873163082938</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064344</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C22" t="n">
-        <v>667.8624625746712</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C23" t="n">
         <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="X23" t="n">
         <v>2354.684526795312</v>
@@ -6063,28 +6063,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>554.6442689908469</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>532.9757468194225</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C26" t="n">
-        <v>532.9757468194225</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D26" t="n">
-        <v>174.710048212672</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E26" t="n">
-        <v>174.710048212672</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F26" t="n">
-        <v>174.710048212672</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>174.710048212672</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>174.710048212672</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,10 +6242,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,22 +6254,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859356</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y26" t="n">
-        <v>919.5755868835442</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W28" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1314.552099519291</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C29" t="n">
-        <v>945.5895825788796</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D29" t="n">
-        <v>945.5895825788796</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6458,31 +6458,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6491,22 +6491,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>1314.552099519291</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.552099519291</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6561,28 +6561,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2636.818952052699</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>2467.882769124793</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>2169.853036130064</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6625,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1580.775345511217</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C32" t="n">
-        <v>1580.775345511217</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D32" t="n">
-        <v>1580.775345511217</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E32" t="n">
-        <v>1194.987092912972</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F32" t="n">
-        <v>784.0011881233647</v>
+        <v>359.1983942475687</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6701,16 +6701,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511217</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>578.0123447940987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>430.0992512117056</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>283.2093037137952</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>114.2095034521276</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2540.126249875602</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1494.154169929768</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.191652989356</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D35" t="n">
-        <v>766.9259543826058</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>546.109828622464</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6941,46 +6941,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2623.661997239816</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2623.661997239816</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2270.893341969701</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2270.893341969701</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>1880.75400999389</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7099,46 +7099,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1937.083492693021</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C38" t="n">
-        <v>1568.120975752609</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D38" t="n">
-        <v>1209.855277145859</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E38" t="n">
-        <v>824.0670245476144</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>413.0811197580069</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7172,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7205,19 +7205,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.683332757143</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>512.0527750937034</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>222.8791647482714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>222.8791647482714</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W40" t="n">
-        <v>222.8791647482714</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X40" t="n">
-        <v>222.8791647482714</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.8791647482714</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>119.7175845880171</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.149091018222</v>
@@ -7445,16 +7445,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2418.885877611043</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2342.079528306156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2342.079528306156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>2570.069079204173</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X43" t="n">
-        <v>2342.079528306156</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y43" t="n">
-        <v>2342.079528306156</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7649,22 +7649,22 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
@@ -7679,19 +7679,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>2398.188774620077</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>2045.420119349963</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="45">
@@ -7737,10 +7737,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747117</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11312,10 +11312,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>235.4137053932878</v>
       </c>
       <c r="X2" t="n">
-        <v>224.4732708943904</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555213</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,16 +22784,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>182.9125578436376</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.4617644510737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047541</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>19.03992737250113</v>
+        <v>2.533089394917454</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,10 +23185,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.99007165458398</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>143.9512655616709</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>31.86743971662563</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>10.74592769735757</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,7 +23513,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>47.41997957426331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>71.2977832336513</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,13 +23668,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23695,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>27.70305839063761</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,25 +23732,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>86.34584229143763</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>151.5142772120792</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,25 +23932,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.34584229143815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>172.322707693313</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24184,10 +24184,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>183.884368419769</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>10.20105013673145</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>23.94594161440355</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,16 +24443,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>142.5756898994346</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24461,7 +24461,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>32.37192051647678</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,13 +24500,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24655,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>243.205144897451</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>200.3939904798089</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>200.1041967228338</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>14.94931854518194</v>
+        <v>111.5813117178627</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25078,25 +25078,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689037</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>402.3930806959349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>178.4719446676667</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>23.94594161440332</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,16 +25394,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>197.3494894312307</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>58.23741346252899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,19 +25445,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>11.11965843648056</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>86.81445950488511</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,16 +25685,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>52.27167719702715</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>160.7137866406823</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569147</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>138.8373234452698</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>31.78154523597129</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>16.39642322652793</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,22 +26065,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>231.8063182229436</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.0831084222</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>318067.8710173336</v>
+      </c>
+      <c r="E2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="F2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="E2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="F2" t="n">
-        <v>318067.8710173336</v>
-      </c>
-      <c r="G2" t="n">
-        <v>318067.8710173334</v>
       </c>
       <c r="H2" t="n">
         <v>318067.8710173334</v>
@@ -26338,10 +26338,10 @@
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="L2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173335</v>
@@ -26353,7 +26353,7 @@
         <v>318067.8710173334</v>
       </c>
       <c r="P2" t="n">
-        <v>318067.8710173333</v>
+        <v>318067.8710173332</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376016.025111402</v>
+        <v>-372988.0138302839</v>
       </c>
       <c r="C6" t="n">
-        <v>213951.8541031425</v>
+        <v>216979.8653842607</v>
       </c>
       <c r="D6" t="n">
-        <v>213951.8541031425</v>
+        <v>216979.8653842609</v>
       </c>
       <c r="E6" t="n">
-        <v>247579.4541031425</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="F6" t="n">
-        <v>247579.4541031426</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="G6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="H6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="I6" t="n">
-        <v>247579.4541031425</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="J6" t="n">
-        <v>71156.23491054945</v>
+        <v>74184.24619166768</v>
       </c>
       <c r="K6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="L6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="M6" t="n">
-        <v>247579.4541031425</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="N6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="O6" t="n">
-        <v>247579.4541031424</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="P6" t="n">
-        <v>247579.4541031423</v>
+        <v>250607.4653842605</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,7 +31756,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31765,34 +31765,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
@@ -31871,7 +31871,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31932,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32166,28 +32166,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,43 +32230,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,25 +32406,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36440,22 +36440,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36920,13 +36920,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>130.3926104730631</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37391,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,13 +38105,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
